--- a/mbs-perturbation/chain/decisionTree/smote/chain-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/chain/decisionTree/smote/chain-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9377593360995851</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9826086956521739</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9596602972399152</v>
+        <v>0.6994535519125683</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9586956521739131</v>
+        <v>0.5767396184062851</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.88</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9684210526315791</v>
+        <v>0.8844221105527638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9682476943346509</v>
+        <v>0.9314865830017346</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.905511811023622</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9504132231404958</v>
+        <v>0.925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9460113421550095</v>
+        <v>0.9645826956433017</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9271255060728745</v>
+        <v>0.9621621621621622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.960167714884696</v>
+        <v>0.9295039164490861</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9593383742911153</v>
+        <v>0.9719402143260012</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.8934010152284264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9934354485776805</v>
+        <v>0.9336870026525198</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999432892249527</v>
+        <v>0.974837204532636</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9426039208031508</v>
+        <v>0.8565580142213806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9921776773950686</v>
+        <v>0.9170640414295237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9664195472948732</v>
+        <v>0.8744133163133876</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9664472704359282</v>
+        <v>0.8839172631819917</v>
       </c>
     </row>
   </sheetData>
